--- a/results/mp/tinybert/corona/confidence/168/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,340 +40,349 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>chaos</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>strong</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>&amp;</t>
   </si>
   <si>
-    <t>new</t>
+    <t>_</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>our</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
+    <t>you</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>is</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>of</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>we</t>
   </si>
   <si>
     <t>as</t>
   </si>
   <si>
-    <t>.</t>
+    <t>to</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>from</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>this</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -731,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,10 +748,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,13 +809,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -818,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -850,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -868,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -892,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -900,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -918,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -950,13 +959,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -968,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1050,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1068,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1092,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1100,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7532467532467533</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1118,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1142,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1150,13 +1159,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1200,13 +1209,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1218,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8431372549019608</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1250,13 +1259,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1268,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8392857142857143</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1300,13 +1309,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1318,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1368,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,13 +1409,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1418,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1442,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1450,13 +1459,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.2887596899224806</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1468,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1492,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1500,13 +1509,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1518,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7407407407407407</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1542,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1550,13 +1559,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1568,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7307692307692307</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1592,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1600,37 +1609,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4849785407725322</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>113</v>
       </c>
-      <c r="D19">
-        <v>113</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>120</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1642,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1650,13 +1659,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4736842105263158</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1668,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.726027397260274</v>
+        <v>0.7125</v>
       </c>
       <c r="L20">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="M20">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1692,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1700,13 +1709,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1718,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7241379310344828</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1742,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1750,13 +1759,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1768,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1792,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1800,13 +1809,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1818,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1842,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1850,49 +1859,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3793103448275862</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
+        <v>352</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>0.625</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>18</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1900,37 +1909,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.313953488372093</v>
+        <v>0.006432246998284734</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>2317</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6244131455399061</v>
+        <v>0.62</v>
       </c>
       <c r="L25">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1942,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1950,37 +1959,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2962962962962963</v>
+        <v>0.005692599620493359</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>3144</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1992,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2000,37 +2009,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.275</v>
+        <v>0.005453837164004675</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>2553</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2042,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2050,37 +2059,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2608695652173913</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>3024</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5587467362924282</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2092,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2100,700 +2109,532 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2272727272727273</v>
+        <v>0.002588610115491836</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>5009</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>0.5186440677966102</v>
+      </c>
+      <c r="L30">
+        <v>153</v>
+      </c>
+      <c r="M30">
+        <v>153</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32">
+        <v>0.5117647058823529</v>
+      </c>
+      <c r="L32">
+        <v>174</v>
+      </c>
+      <c r="M32">
+        <v>174</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.4560669456066946</v>
+      </c>
+      <c r="L35">
+        <v>109</v>
+      </c>
+      <c r="M35">
+        <v>109</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K29">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29">
-        <v>10</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C30">
-        <v>30</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>105</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="K36">
+        <v>0.45</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>18</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K30">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="K37">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L37">
+        <v>39</v>
+      </c>
+      <c r="M37">
+        <v>39</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.3953488372093023</v>
+      </c>
+      <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>26</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L31">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="L41">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>30</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L32">
-        <v>7</v>
-      </c>
-      <c r="M32">
-        <v>7</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>32</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L33">
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>0.3125</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>22</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M33">
-        <v>77</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.1075268817204301</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>166</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="L34">
-        <v>67</v>
-      </c>
-      <c r="M34">
-        <v>67</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.009721322099805573</v>
-      </c>
-      <c r="C35">
+      <c r="K44">
+        <v>0.2131147540983606</v>
+      </c>
+      <c r="L44">
+        <v>13</v>
+      </c>
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="L46">
         <v>15</v>
       </c>
-      <c r="D35">
-        <v>36</v>
-      </c>
-      <c r="E35">
-        <v>0.58</v>
-      </c>
-      <c r="F35">
-        <v>0.42</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1528</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>46</v>
-      </c>
-      <c r="M35">
-        <v>46</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.005699810006333122</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>27</v>
-      </c>
-      <c r="E36">
-        <v>0.67</v>
-      </c>
-      <c r="F36">
-        <v>0.33</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1570</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>12</v>
-      </c>
-      <c r="M36">
-        <v>12</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="L37">
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>0.88</v>
+      </c>
+      <c r="O46">
+        <v>0.12</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47">
+        <v>0.1031175059952038</v>
+      </c>
+      <c r="L47">
+        <v>43</v>
+      </c>
+      <c r="M47">
+        <v>44</v>
+      </c>
+      <c r="N47">
+        <v>0.98</v>
+      </c>
+      <c r="O47">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48">
+        <v>0.09696969696969697</v>
+      </c>
+      <c r="L48">
         <v>16</v>
       </c>
-      <c r="M37">
+      <c r="M48">
         <v>16</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="L38">
-        <v>9</v>
-      </c>
-      <c r="M38">
-        <v>9</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.40625</v>
-      </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-      <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>8</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.4</v>
-      </c>
-      <c r="L41">
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <v>10</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.3947368421052632</v>
-      </c>
-      <c r="L42">
-        <v>15</v>
-      </c>
-      <c r="M42">
-        <v>15</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L43">
-        <v>11</v>
-      </c>
-      <c r="M43">
-        <v>11</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.35</v>
-      </c>
-      <c r="L44">
-        <v>7</v>
-      </c>
-      <c r="M44">
-        <v>7</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L45">
-        <v>8</v>
-      </c>
-      <c r="M45">
-        <v>8</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K46">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46">
-        <v>7</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="L47">
-        <v>8</v>
-      </c>
-      <c r="M47">
-        <v>8</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48">
-        <v>0.1149425287356322</v>
-      </c>
-      <c r="L48">
-        <v>10</v>
-      </c>
-      <c r="M48">
-        <v>10</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
@@ -2804,21 +2645,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.08333333333333333</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2830,73 +2671,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>88</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K50">
-        <v>0.07518796992481203</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>123</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>0.06565656565656566</v>
+        <v>0.07591093117408906</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>185</v>
+        <v>913</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K52">
-        <v>0.05853658536585366</v>
+        <v>0.07451923076923077</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2908,47 +2749,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K53">
-        <v>0.04975124378109453</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K54">
-        <v>0.04784688995215311</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2960,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>199</v>
+        <v>831</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K55">
-        <v>0.04666666666666667</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2986,229 +2827,229 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>143</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K56">
-        <v>0.04285714285714286</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="L56">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N56">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>201</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K57">
-        <v>0.04225352112676056</v>
+        <v>0.05243445692883895</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>408</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K58">
-        <v>0.04072398190045249</v>
+        <v>0.04400749063670412</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="N58">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O58">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>424</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K59">
-        <v>0.04040404040404041</v>
+        <v>0.04327666151468315</v>
       </c>
       <c r="L59">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>190</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K60">
-        <v>0.03728070175438596</v>
+        <v>0.04261363636363636</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>439</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K61">
-        <v>0.03619909502262444</v>
+        <v>0.04</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N61">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>213</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="K62">
-        <v>0.03571428571428571</v>
+        <v>0.03986461075592328</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>270</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K63">
-        <v>0.03492063492063492</v>
+        <v>0.03901825047199497</v>
       </c>
       <c r="L63">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>304</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K64">
-        <v>0.02941176470588235</v>
+        <v>0.03298969072164949</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3220,67 +3061,67 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>264</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K65">
-        <v>0.02922077922077922</v>
+        <v>0.03166332665330662</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="N65">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>897</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K66">
-        <v>0.02589285714285714</v>
+        <v>0.03130755064456722</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N66">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1091</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K67">
-        <v>0.02402957486136784</v>
+        <v>0.03044496487119438</v>
       </c>
       <c r="L67">
         <v>13</v>
@@ -3298,359 +3139,359 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>528</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K68">
-        <v>0.02400960384153662</v>
+        <v>0.02968036529680365</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K69">
-        <v>0.02308499475341028</v>
+        <v>0.02957906712172924</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>931</v>
+        <v>853</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K70">
-        <v>0.02140672782874618</v>
+        <v>0.02904929577464789</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>320</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K71">
-        <v>0.01779173207744636</v>
+        <v>0.02886836027713626</v>
       </c>
       <c r="L71">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N71">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1877</v>
+        <v>841</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K72">
-        <v>0.0162037037037037</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>425</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K73">
-        <v>0.01551724137931034</v>
+        <v>0.02872384078785392</v>
       </c>
       <c r="L73">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N73">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O73">
-        <v>0.18</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1713</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K74">
-        <v>0.01461377870563674</v>
+        <v>0.02844638949671772</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>472</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="K75">
-        <v>0.01460221550855992</v>
+        <v>0.02775621118012422</v>
       </c>
       <c r="L75">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="M75">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="N75">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O75">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1957</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K76">
-        <v>0.01408450704225352</v>
+        <v>0.02636203866432337</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>630</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="K77">
-        <v>0.01355713363460297</v>
+        <v>0.02603440260344026</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M77">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N77">
-        <v>0.58</v>
+        <v>0.89</v>
       </c>
       <c r="O77">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1528</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K78">
-        <v>0.011727078891258</v>
+        <v>0.02571638501102131</v>
       </c>
       <c r="L78">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M78">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N78">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O78">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>927</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="K79">
-        <v>0.01133501259445844</v>
+        <v>0.02560763888888889</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M79">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="N79">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="O79">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>1570</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K80">
-        <v>0.009174311926605505</v>
+        <v>0.0249609984399376</v>
       </c>
       <c r="L80">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N80">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="O80">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>864</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K81">
-        <v>0.007049345417925478</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="L81">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>0.88</v>
@@ -3662,7 +3503,345 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>986</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K82">
+        <v>0.02467532467532468</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>19</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K83">
+        <v>0.02316423442205235</v>
+      </c>
+      <c r="L83">
+        <v>100</v>
+      </c>
+      <c r="M83">
+        <v>111</v>
+      </c>
+      <c r="N83">
+        <v>0.9</v>
+      </c>
+      <c r="O83">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K84">
+        <v>0.0227979274611399</v>
+      </c>
+      <c r="L84">
+        <v>22</v>
+      </c>
+      <c r="M84">
+        <v>25</v>
+      </c>
+      <c r="N84">
+        <v>0.88</v>
+      </c>
+      <c r="O84">
+        <v>0.12</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K85">
+        <v>0.022508038585209</v>
+      </c>
+      <c r="L85">
+        <v>14</v>
+      </c>
+      <c r="M85">
+        <v>19</v>
+      </c>
+      <c r="N85">
+        <v>0.74</v>
+      </c>
+      <c r="O85">
+        <v>0.26</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86">
+        <v>0.02230843840931135</v>
+      </c>
+      <c r="L86">
+        <v>69</v>
+      </c>
+      <c r="M86">
+        <v>83</v>
+      </c>
+      <c r="N86">
+        <v>0.83</v>
+      </c>
+      <c r="O86">
+        <v>0.17</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K87">
+        <v>0.02021174205967276</v>
+      </c>
+      <c r="L87">
+        <v>21</v>
+      </c>
+      <c r="M87">
+        <v>22</v>
+      </c>
+      <c r="N87">
+        <v>0.95</v>
+      </c>
+      <c r="O87">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88">
+        <v>0.01988155668358714</v>
+      </c>
+      <c r="L88">
+        <v>47</v>
+      </c>
+      <c r="M88">
+        <v>62</v>
+      </c>
+      <c r="N88">
+        <v>0.76</v>
+      </c>
+      <c r="O88">
+        <v>0.24</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K89">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="L89">
+        <v>19</v>
+      </c>
+      <c r="M89">
+        <v>20</v>
+      </c>
+      <c r="N89">
+        <v>0.95</v>
+      </c>
+      <c r="O89">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K90">
+        <v>0.01841359773371105</v>
+      </c>
+      <c r="L90">
+        <v>13</v>
+      </c>
+      <c r="M90">
+        <v>15</v>
+      </c>
+      <c r="N90">
+        <v>0.87</v>
+      </c>
+      <c r="O90">
+        <v>0.13</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K91">
+        <v>0.01769911504424779</v>
+      </c>
+      <c r="L91">
+        <v>16</v>
+      </c>
+      <c r="M91">
+        <v>17</v>
+      </c>
+      <c r="N91">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O91">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K92">
+        <v>0.0150564617314931</v>
+      </c>
+      <c r="L92">
+        <v>36</v>
+      </c>
+      <c r="M92">
+        <v>39</v>
+      </c>
+      <c r="N92">
+        <v>0.92</v>
+      </c>
+      <c r="O92">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93">
+        <v>0.01225259189443921</v>
+      </c>
+      <c r="L93">
+        <v>39</v>
+      </c>
+      <c r="M93">
+        <v>57</v>
+      </c>
+      <c r="N93">
+        <v>0.68</v>
+      </c>
+      <c r="O93">
+        <v>0.32</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K94">
+        <v>0.01120689655172414</v>
+      </c>
+      <c r="L94">
+        <v>13</v>
+      </c>
+      <c r="M94">
+        <v>14</v>
+      </c>
+      <c r="N94">
+        <v>0.93</v>
+      </c>
+      <c r="O94">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
